--- a/Client 1/Disability.xlsx
+++ b/Client 1/Disability.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rudolph Van Rensburg\Desktop\KHUSA\Clarissa Summary Report\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rudolph Van Rensburg\Desktop\KHUSA\Clarissa Summary Report\Client 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423A78B0-8E7B-4A76-90C4-B6582158375C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC8C79B-50CB-49B5-A56E-CC2354E67C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="-96" windowWidth="29016" windowHeight="16416" xr2:uid="{C1AA6538-AF1B-44EF-AEDD-64799C5F45FD}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t xml:space="preserve">Medical Review Month annually </t>
   </si>
   <si>
-    <t xml:space="preserve">DUE DATE OF REVIEW </t>
-  </si>
-  <si>
     <t xml:space="preserve">Momentum </t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Next review submisison Nov 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Next review submisison Oct 2025 </t>
-  </si>
-  <si>
     <t>xxxxxxxxxxxxx</t>
   </si>
   <si>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>Member C</t>
+  </si>
+  <si>
+    <t>Next Review Due</t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
     <tableColumn id="2" xr3:uid="{2793CABE-EC69-4073-AD81-0C1A151AD83E}" name="ID Number " dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{D33EDCAA-A277-4BC8-BF52-F54AF95362C4}" name="Insurer Paying Claim " dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{8C6D9005-86E7-4B45-BE9F-A6C1C84012FA}" name="Medical Review Month annually "/>
-    <tableColumn id="5" xr3:uid="{7562A1B2-116E-44F5-A132-E6B9BCB4A99A}" name="DUE DATE OF REVIEW "/>
+    <tableColumn id="5" xr3:uid="{7562A1B2-116E-44F5-A132-E6B9BCB4A99A}" name="Next Review Due"/>
     <tableColumn id="6" xr3:uid="{A4E3D09A-6324-4104-8FAA-C9FD0B3A7411}" name="Salary Escalation month " dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{9D1AE2CB-A477-4708-B934-4593320869A8}" name="DECISION "/>
     <tableColumn id="8" xr3:uid="{75ADF7E2-60EA-4A8E-BC41-EFEEA238707A}" name="NOTES " dataDxfId="0"/>
@@ -907,7 +907,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,13 +937,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>4</v>
@@ -951,73 +951,71 @@
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2">
         <v>45626</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45450</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>45626</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15" t="s">
-        <v>16</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1028,6 +1026,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d023f3b7-3b52-4817-a6b9-85ddf5945990" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7c7dd1ac-56d3-4e98-9913-357e1eb00778">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1036,7 +1045,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100422AA1B48CF5FA47951496C2E2653101" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="268f55693bffb57146b526914e0b1c97">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7c7dd1ac-56d3-4e98-9913-357e1eb00778" xmlns:ns3="d023f3b7-3b52-4817-a6b9-85ddf5945990" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="398699848dcf4a3a2e7325a3c1385277" ns2:_="" ns3:_="">
     <xsd:import namespace="7c7dd1ac-56d3-4e98-9913-357e1eb00778"/>
@@ -1297,18 +1306,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d023f3b7-3b52-4817-a6b9-85ddf5945990" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7c7dd1ac-56d3-4e98-9913-357e1eb00778">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FF65F3C-ADAE-41E9-8C0C-C9E8CF498628}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d023f3b7-3b52-4817-a6b9-85ddf5945990"/>
+    <ds:schemaRef ds:uri="7c7dd1ac-56d3-4e98-9913-357e1eb00778"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E7A88F8-EB3B-4287-A0F2-7819DD2EF5A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1316,7 +1325,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CA4A7A3-A31E-41E6-A92A-BB47AF84C69B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1333,15 +1342,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FF65F3C-ADAE-41E9-8C0C-C9E8CF498628}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d023f3b7-3b52-4817-a6b9-85ddf5945990"/>
-    <ds:schemaRef ds:uri="7c7dd1ac-56d3-4e98-9913-357e1eb00778"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>